--- a/Project3/DB/CourseDatabase6300.xlsx
+++ b/Project3/DB/CourseDatabase6300.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orso/git/6300Spring16ao44/Project3/DB/"/>
     </mc:Choice>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>Team 1</t>
   </si>
@@ -203,13 +203,65 @@
   </si>
   <si>
     <t>Student 1</t>
+  </si>
+  <si>
+    <t>901234501</t>
+  </si>
+  <si>
+    <t>901234502</t>
+  </si>
+  <si>
+    <t>901234503</t>
+  </si>
+  <si>
+    <t>901234504</t>
+  </si>
+  <si>
+    <t>901234505</t>
+  </si>
+  <si>
+    <t>901234506</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>901234507</t>
+  </si>
+  <si>
+    <t>901234508</t>
+  </si>
+  <si>
+    <t>901234509</t>
+  </si>
+  <si>
+    <t>901234510</t>
+  </si>
+  <si>
+    <t>901234511</t>
+  </si>
+  <si>
+    <t>901234512</t>
+  </si>
+  <si>
+    <t>901234513</t>
+  </si>
+  <si>
+    <t>901234514</t>
+  </si>
+  <si>
+    <t>901234515</t>
+  </si>
+  <si>
+    <t>901234516</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -789,13 +841,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="5.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="5.1640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1206,12 +1258,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="15"/>
+    <col min="1" max="1" customWidth="true" style="15" width="11.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="15" width="12.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="15" width="16.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="15" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="15" width="16.0" collapsed="true"/>
+    <col min="6" max="16384" style="15" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1317,8 +1369,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1330,128 +1382,128 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
-        <v>901234501</v>
+      <c r="A2" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="B2" s="9">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
-        <v>901234502</v>
+      <c r="A3" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="B3" s="9">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
-        <v>901234503</v>
+      <c r="A4" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="B4" s="9">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
-        <v>901234504</v>
+      <c r="A5" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B5" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
-        <v>901234505</v>
+      <c r="A6" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="B6" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
-        <v>901234506</v>
-      </c>
-      <c r="B7" s="9">
-        <v>83</v>
+      <c r="A7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
-        <v>901234507</v>
+      <c r="A8" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="B8" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
-        <v>901234508</v>
+      <c r="A9" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="B9" s="9">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
-        <v>901234509</v>
+      <c r="A10" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="B10" s="9">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
-        <v>901234510</v>
+      <c r="A11" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="B11" s="9">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
-        <v>901234511</v>
+      <c r="A12" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="B12" s="9">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
-        <v>901234512</v>
+      <c r="A13" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="B13" s="9">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
-        <v>901234513</v>
+      <c r="A14" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="B14" s="9">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
-        <v>901234514</v>
+      <c r="A15" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="B15" s="9">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
-        <v>901234515</v>
+      <c r="A16" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="B16" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11">
-        <v>901234516</v>
+      <c r="A17" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="B17" s="9">
         <v>98</v>
@@ -1471,10 +1523,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1732,9 +1784,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1991,11 +2043,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" customWidth="true" style="6" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="6" width="13.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="6" width="13.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="6" width="12.6640625" collapsed="true"/>
+    <col min="5" max="16384" style="6" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
